--- a/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969881303255629</v>
+        <v>0.9969881303255602</v>
       </c>
       <c r="D2">
-        <v>1.017178274699627</v>
+        <v>1.017178274699624</v>
       </c>
       <c r="E2">
-        <v>1.002973967826568</v>
+        <v>1.002973967826566</v>
       </c>
       <c r="F2">
-        <v>1.017161943027821</v>
+        <v>1.017161943027818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041020711689759</v>
+        <v>1.041020711689758</v>
       </c>
       <c r="J2">
-        <v>1.019259300604059</v>
+        <v>1.019259300604056</v>
       </c>
       <c r="K2">
-        <v>1.028403366020437</v>
+        <v>1.028403366020434</v>
       </c>
       <c r="L2">
-        <v>1.01439202546309</v>
+        <v>1.014392025463088</v>
       </c>
       <c r="M2">
-        <v>1.028387252328466</v>
+        <v>1.028387252328463</v>
       </c>
       <c r="N2">
-        <v>1.020706765721593</v>
+        <v>1.02070676572159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -477,22 +477,22 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043524597706676</v>
+        <v>1.043524597706677</v>
       </c>
       <c r="J3">
-        <v>1.026095225537213</v>
+        <v>1.026095225537214</v>
       </c>
       <c r="K3">
         <v>1.034420891665742</v>
       </c>
       <c r="L3">
-        <v>1.020861784146088</v>
+        <v>1.020861784146089</v>
       </c>
       <c r="M3">
         <v>1.035371480411175</v>
       </c>
       <c r="N3">
-        <v>1.027552398452243</v>
+        <v>1.027552398452244</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011244121444458</v>
+        <v>1.011244121444459</v>
       </c>
       <c r="D4">
         <v>1.02840849010329</v>
       </c>
       <c r="E4">
-        <v>1.014982979420491</v>
+        <v>1.014982979420492</v>
       </c>
       <c r="F4">
-        <v>1.029986805007118</v>
+        <v>1.029986805007119</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.045075838574155</v>
       </c>
       <c r="J4">
-        <v>1.030364510108946</v>
+        <v>1.030364510108947</v>
       </c>
       <c r="K4">
-        <v>1.03817572604479</v>
+        <v>1.038175726044791</v>
       </c>
       <c r="L4">
         <v>1.024903874731986</v>
       </c>
       <c r="M4">
-        <v>1.039736300711429</v>
+        <v>1.03973630071143</v>
       </c>
       <c r="N4">
-        <v>1.031827745897762</v>
+        <v>1.031827745897763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013506391651988</v>
+        <v>1.013506391651989</v>
       </c>
       <c r="D5">
-        <v>1.030191604106458</v>
+        <v>1.030191604106459</v>
       </c>
       <c r="E5">
-        <v>1.016891598351046</v>
+        <v>1.016891598351048</v>
       </c>
       <c r="F5">
-        <v>1.0320251824847</v>
+        <v>1.032025182484701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045712345041907</v>
+        <v>1.045712345041908</v>
       </c>
       <c r="J5">
-        <v>1.032124707589955</v>
+        <v>1.032124707589956</v>
       </c>
       <c r="K5">
-        <v>1.03972298441858</v>
+        <v>1.039722984418581</v>
       </c>
       <c r="L5">
-        <v>1.026570744471445</v>
+        <v>1.026570744471446</v>
       </c>
       <c r="M5">
-        <v>1.041536558052926</v>
+        <v>1.041536558052927</v>
       </c>
       <c r="N5">
-        <v>1.033590443061091</v>
+        <v>1.033590443061092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,7 +585,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013883790695166</v>
+        <v>1.013883790695167</v>
       </c>
       <c r="D6">
         <v>1.030489088664112</v>
@@ -594,7 +594,7 @@
         <v>1.017210076401621</v>
       </c>
       <c r="F6">
-        <v>1.032365314961015</v>
+        <v>1.032365314961016</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -606,16 +606,16 @@
         <v>1.032418284637949</v>
       </c>
       <c r="K6">
-        <v>1.039980996008267</v>
+        <v>1.039980996008268</v>
       </c>
       <c r="L6">
-        <v>1.026848775485659</v>
+        <v>1.02684877548566</v>
       </c>
       <c r="M6">
         <v>1.041836855252128</v>
       </c>
       <c r="N6">
-        <v>1.033884437022167</v>
+        <v>1.033884437022168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011274515634227</v>
+        <v>1.011274515634226</v>
       </c>
       <c r="D7">
-        <v>1.028432445277184</v>
+        <v>1.028432445277183</v>
       </c>
       <c r="E7">
         <v>1.015008617005908</v>
       </c>
       <c r="F7">
-        <v>1.030014185407532</v>
+        <v>1.030014185407531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045084403953197</v>
+        <v>1.045084403953196</v>
       </c>
       <c r="J7">
-        <v>1.030388163120028</v>
+        <v>1.030388163120027</v>
       </c>
       <c r="K7">
-        <v>1.038196520996591</v>
+        <v>1.03819652099659</v>
       </c>
       <c r="L7">
         <v>1.024926272292618</v>
       </c>
       <c r="M7">
-        <v>1.039760489411188</v>
+        <v>1.039760489411187</v>
       </c>
       <c r="N7">
-        <v>1.031851432498833</v>
+        <v>1.031851432498832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.999994496317363</v>
+        <v>0.9999944963173617</v>
       </c>
       <c r="D8">
-        <v>1.019545467179561</v>
+        <v>1.01954546717956</v>
       </c>
       <c r="E8">
-        <v>1.005503793707718</v>
+        <v>1.005503793707716</v>
       </c>
       <c r="F8">
-        <v>1.019863552136179</v>
+        <v>1.019863552136178</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.041881737582143</v>
       </c>
       <c r="J8">
-        <v>1.021602858226007</v>
+        <v>1.021602858226006</v>
       </c>
       <c r="K8">
-        <v>1.030467034625489</v>
+        <v>1.030467034625488</v>
       </c>
       <c r="L8">
-        <v>1.016609725177989</v>
+        <v>1.016609725177988</v>
       </c>
       <c r="M8">
-        <v>1.030781016763996</v>
+        <v>1.030781016763995</v>
       </c>
       <c r="N8">
-        <v>1.023053651464174</v>
+        <v>1.023053651464173</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9784914760848072</v>
+        <v>0.9784914760848081</v>
       </c>
       <c r="D9">
-        <v>1.00263154717118</v>
+        <v>1.002631547171182</v>
       </c>
       <c r="E9">
-        <v>0.9874421586393548</v>
+        <v>0.9874421586393558</v>
       </c>
       <c r="F9">
-        <v>1.000576466270162</v>
+        <v>1.000576466270163</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035666019225655</v>
+        <v>1.035666019225656</v>
       </c>
       <c r="J9">
-        <v>1.004827306878657</v>
+        <v>1.004827306878658</v>
       </c>
       <c r="K9">
-        <v>1.015682073156725</v>
+        <v>1.015682073156726</v>
       </c>
       <c r="L9">
-        <v>1.000742317784092</v>
+        <v>1.000742317784093</v>
       </c>
       <c r="M9">
-        <v>1.013660197629971</v>
+        <v>1.013660197629972</v>
       </c>
       <c r="N9">
-        <v>1.006254276909728</v>
+        <v>1.006254276909729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9628156318262717</v>
+        <v>0.9628156318262732</v>
       </c>
       <c r="D10">
-        <v>0.9903331441191581</v>
+        <v>0.9903331441191594</v>
       </c>
       <c r="E10">
-        <v>0.9743255355506119</v>
+        <v>0.9743255355506131</v>
       </c>
       <c r="F10">
-        <v>0.9865713776969102</v>
+        <v>0.9865713776969116</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.031065912874209</v>
       </c>
       <c r="J10">
-        <v>0.9925863898348458</v>
+        <v>0.9925863898348473</v>
       </c>
       <c r="K10">
-        <v>1.004879158064456</v>
+        <v>1.004879158064458</v>
       </c>
       <c r="L10">
-        <v>0.9891743571598763</v>
+        <v>0.9891743571598778</v>
       </c>
       <c r="M10">
-        <v>1.001187398101889</v>
+        <v>1.00118739810189</v>
       </c>
       <c r="N10">
-        <v>0.9939959763596617</v>
+        <v>0.9939959763596631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9556419611509498</v>
+        <v>0.9556419611509499</v>
       </c>
       <c r="D11">
-        <v>0.9847162597322489</v>
+        <v>0.9847162597322495</v>
       </c>
       <c r="E11">
-        <v>0.9683380488469779</v>
+        <v>0.9683380488469783</v>
       </c>
       <c r="F11">
-        <v>0.9801787528681648</v>
+        <v>0.9801787528681652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028946235925338</v>
+        <v>1.028946235925339</v>
       </c>
       <c r="J11">
-        <v>0.9869840442400299</v>
+        <v>0.9869840442400304</v>
       </c>
       <c r="K11">
-        <v>0.9999322777524915</v>
+        <v>0.999932277752492</v>
       </c>
       <c r="L11">
-        <v>0.9838828272874341</v>
+        <v>0.9838828272874346</v>
       </c>
       <c r="M11">
-        <v>0.9954844062487397</v>
+        <v>0.9954844062487401</v>
       </c>
       <c r="N11">
-        <v>0.9883856747915032</v>
+        <v>0.9883856747915034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529123617548279</v>
+        <v>0.9529123617548273</v>
       </c>
       <c r="D12">
-        <v>0.9825810610169228</v>
+        <v>0.9825810610169222</v>
       </c>
       <c r="E12">
-        <v>0.9660623564760922</v>
+        <v>0.9660623564760915</v>
       </c>
       <c r="F12">
-        <v>0.977749150579143</v>
+        <v>0.9777491505791424</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.028137688243725</v>
       </c>
       <c r="J12">
-        <v>0.9848524651871495</v>
+        <v>0.9848524651871491</v>
       </c>
       <c r="K12">
-        <v>0.9980497662893748</v>
+        <v>0.9980497662893747</v>
       </c>
       <c r="L12">
-        <v>0.9818699690828104</v>
+        <v>0.9818699690828097</v>
       </c>
       <c r="M12">
-        <v>0.9933154287193755</v>
+        <v>0.9933154287193748</v>
       </c>
       <c r="N12">
-        <v>0.986251068651872</v>
+        <v>0.9862510686518715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535009361459504</v>
+        <v>0.9535009361459508</v>
       </c>
       <c r="D13">
-        <v>0.9830413684617254</v>
+        <v>0.9830413684617259</v>
       </c>
       <c r="E13">
-        <v>0.9665529355437069</v>
+        <v>0.9665529355437074</v>
       </c>
       <c r="F13">
-        <v>0.9782729051161447</v>
+        <v>0.9782729051161452</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.028312119936826</v>
       </c>
       <c r="J13">
-        <v>0.9853120809036138</v>
+        <v>0.985312080903614</v>
       </c>
       <c r="K13">
-        <v>0.9984556907448067</v>
+        <v>0.9984556907448069</v>
       </c>
       <c r="L13">
-        <v>0.9823039644571284</v>
+        <v>0.9823039644571288</v>
       </c>
       <c r="M13">
-        <v>0.9937830667244497</v>
+        <v>0.9937830667244498</v>
       </c>
       <c r="N13">
-        <v>0.9867113370753725</v>
+        <v>0.9867113370753727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9554177019479113</v>
+        <v>0.9554177019479108</v>
       </c>
       <c r="D14">
         <v>0.9845407919296066</v>
       </c>
       <c r="E14">
-        <v>0.9681510281130964</v>
+        <v>0.9681510281130957</v>
       </c>
       <c r="F14">
-        <v>0.9799790819952213</v>
+        <v>0.9799790819952209</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028879846499997</v>
+        <v>1.028879846499996</v>
       </c>
       <c r="J14">
-        <v>0.9868089134325897</v>
+        <v>0.9868089134325893</v>
       </c>
       <c r="K14">
-        <v>0.9997776164380422</v>
+        <v>0.999777616438042</v>
       </c>
       <c r="L14">
-        <v>0.9837174410143269</v>
+        <v>0.9837174410143263</v>
       </c>
       <c r="M14">
-        <v>0.9953061841997402</v>
+        <v>0.99530618419974</v>
       </c>
       <c r="N14">
-        <v>0.9882102952782286</v>
+        <v>0.9882102952782278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9565898444865862</v>
+        <v>0.9565898444865875</v>
       </c>
       <c r="D15">
-        <v>0.9854579999208909</v>
+        <v>0.9854579999208918</v>
       </c>
       <c r="E15">
-        <v>0.9691286409690766</v>
+        <v>0.9691286409690778</v>
       </c>
       <c r="F15">
-        <v>0.9810228238897799</v>
+        <v>0.981022823889781</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.029226765987475</v>
       </c>
       <c r="J15">
-        <v>0.9877242815840251</v>
+        <v>0.9877242815840263</v>
       </c>
       <c r="K15">
-        <v>1.000585982654583</v>
+        <v>1.000585982654584</v>
       </c>
       <c r="L15">
-        <v>0.9845818957082113</v>
+        <v>0.9845818957082124</v>
       </c>
       <c r="M15">
-        <v>0.9962377463206671</v>
+        <v>0.9962377463206682</v>
       </c>
       <c r="N15">
-        <v>0.989126963357433</v>
+        <v>0.9891269633574343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9632830230304189</v>
+        <v>0.9632830230304161</v>
       </c>
       <c r="D16">
-        <v>0.9906993641092579</v>
+        <v>0.9906993641092553</v>
       </c>
       <c r="E16">
-        <v>0.9747159762343404</v>
+        <v>0.9747159762343378</v>
       </c>
       <c r="F16">
-        <v>0.9869882467259367</v>
+        <v>0.986988246725934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031203732551679</v>
+        <v>1.031203732551678</v>
       </c>
       <c r="J16">
-        <v>0.9929514085874787</v>
+        <v>0.9929514085874759</v>
       </c>
       <c r="K16">
-        <v>1.005201421457049</v>
+        <v>1.005201421457047</v>
       </c>
       <c r="L16">
-        <v>0.9895191859712571</v>
+        <v>0.9895191859712548</v>
       </c>
       <c r="M16">
-        <v>1.001559093067877</v>
+        <v>1.001559093067874</v>
       </c>
       <c r="N16">
-        <v>0.9943615134807917</v>
+        <v>0.9943615134807886</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9673735722708005</v>
+        <v>0.9673735722707996</v>
       </c>
       <c r="D17">
-        <v>0.9939057668604342</v>
+        <v>0.9939057668604335</v>
       </c>
       <c r="E17">
-        <v>0.9781347798515385</v>
+        <v>0.9781347798515382</v>
       </c>
       <c r="F17">
-        <v>0.9906385130697327</v>
+        <v>0.9906385130697323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032408300433975</v>
+        <v>1.032408300433974</v>
       </c>
       <c r="J17">
-        <v>0.9961459634582875</v>
+        <v>0.9961459634582868</v>
       </c>
       <c r="K17">
         <v>1.008021500532214</v>
       </c>
       <c r="L17">
-        <v>0.992537363686514</v>
+        <v>0.9925373636865136</v>
       </c>
       <c r="M17">
-        <v>1.004812698502207</v>
+        <v>1.004812698502206</v>
       </c>
       <c r="N17">
-        <v>0.9975606049859372</v>
+        <v>0.9975606049859366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697228143023797</v>
+        <v>0.9697228143023799</v>
       </c>
       <c r="D18">
-        <v>0.9957482528165268</v>
+        <v>0.995748252816527</v>
       </c>
       <c r="E18">
-        <v>0.9800996114957142</v>
+        <v>0.9800996114957143</v>
       </c>
       <c r="F18">
-        <v>0.992736408911937</v>
+        <v>0.9927364089119374</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.033098725087596</v>
       </c>
       <c r="J18">
-        <v>0.9979805572045678</v>
+        <v>0.9979805572045681</v>
       </c>
       <c r="K18">
-        <v>1.009640782773137</v>
+        <v>1.009640782773138</v>
       </c>
       <c r="L18">
-        <v>0.994270926726873</v>
+        <v>0.9942709267268732</v>
       </c>
       <c r="M18">
-        <v>1.006681710463835</v>
+        <v>1.006681710463836</v>
       </c>
       <c r="N18">
-        <v>0.9993978040657683</v>
+        <v>0.9993978040657687</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705178128621745</v>
+        <v>0.9705178128621742</v>
       </c>
       <c r="D19">
-        <v>0.9963719248045425</v>
+        <v>0.9963719248045421</v>
       </c>
       <c r="E19">
-        <v>0.9807647489222141</v>
+        <v>0.9807647489222133</v>
       </c>
       <c r="F19">
-        <v>0.9934465978900343</v>
+        <v>0.993446597890034</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,13 +1136,13 @@
         <v>1.033332131855733</v>
       </c>
       <c r="J19">
-        <v>0.9986013777980738</v>
+        <v>0.9986013777980735</v>
       </c>
       <c r="K19">
-        <v>1.010188697349676</v>
+        <v>1.010188697349675</v>
       </c>
       <c r="L19">
-        <v>0.9948576020320079</v>
+        <v>0.9948576020320075</v>
       </c>
       <c r="M19">
         <v>1.007314261998575</v>
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9669385385537316</v>
+        <v>0.9669385385537315</v>
       </c>
       <c r="D20">
-        <v>0.9935646546789541</v>
+        <v>0.9935646546789538</v>
       </c>
       <c r="E20">
-        <v>0.9777710413563382</v>
+        <v>0.977771041356338</v>
       </c>
       <c r="F20">
-        <v>0.9902501442806337</v>
+        <v>0.9902501442806332</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1183,13 +1183,13 @@
         <v>1.007721613673228</v>
       </c>
       <c r="L20">
-        <v>0.9922163558744649</v>
+        <v>0.9922163558744646</v>
       </c>
       <c r="M20">
         <v>1.004466627380519</v>
       </c>
       <c r="N20">
-        <v>0.9972203845141382</v>
+        <v>0.9972203845141381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548551181967326</v>
+        <v>0.9548551181967327</v>
       </c>
       <c r="D21">
-        <v>0.9841006419017608</v>
+        <v>0.9841006419017609</v>
       </c>
       <c r="E21">
-        <v>0.9676819042087529</v>
+        <v>0.9676819042087528</v>
       </c>
       <c r="F21">
-        <v>0.9794782276092858</v>
+        <v>0.9794782276092857</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1224,13 +1224,13 @@
         <v>0.9993896257465512</v>
       </c>
       <c r="L21">
-        <v>0.9833025579936815</v>
+        <v>0.9833025579936816</v>
       </c>
       <c r="M21">
         <v>0.9948591082406627</v>
       </c>
       <c r="N21">
-        <v>0.987770335505797</v>
+        <v>0.9877703355057968</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468774340991624</v>
+        <v>0.9468774340991645</v>
       </c>
       <c r="D22">
-        <v>0.9778645278340989</v>
+        <v>0.9778645278341007</v>
       </c>
       <c r="E22">
-        <v>0.961036099589</v>
+        <v>0.961036099589002</v>
       </c>
       <c r="F22">
-        <v>0.9723831027318228</v>
+        <v>0.9723831027318246</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.02634656881399</v>
       </c>
       <c r="J22">
-        <v>0.9801402186016315</v>
+        <v>0.9801402186016334</v>
       </c>
       <c r="K22">
-        <v>0.9938876270530149</v>
+        <v>0.9938876270530165</v>
       </c>
       <c r="L22">
-        <v>0.9774210783691525</v>
+        <v>0.9774210783691545</v>
       </c>
       <c r="M22">
-        <v>0.9885222523895368</v>
+        <v>0.9885222523895387</v>
       </c>
       <c r="N22">
-        <v>0.9815321301357003</v>
+        <v>0.9815321301357021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511452787675484</v>
+        <v>0.9511452787675497</v>
       </c>
       <c r="D23">
-        <v>0.9811994050703855</v>
+        <v>0.9811994050703868</v>
       </c>
       <c r="E23">
-        <v>0.9645898875202326</v>
+        <v>0.9645898875202337</v>
       </c>
       <c r="F23">
-        <v>0.9761771171503443</v>
+        <v>0.9761771171503456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027613711536265</v>
+        <v>1.027613711536266</v>
       </c>
       <c r="J23">
-        <v>0.9834725933427068</v>
+        <v>0.9834725933427079</v>
       </c>
       <c r="K23">
-        <v>0.9968310470850062</v>
+        <v>0.9968310470850075</v>
       </c>
       <c r="L23">
-        <v>0.9805670863527911</v>
+        <v>0.9805670863527921</v>
       </c>
       <c r="M23">
-        <v>0.9919116096054635</v>
+        <v>0.9919116096054647</v>
       </c>
       <c r="N23">
-        <v>0.9848692372311366</v>
+        <v>0.9848692372311377</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671352244831996</v>
+        <v>0.9671352244831979</v>
       </c>
       <c r="D24">
-        <v>0.993718873990613</v>
+        <v>0.9937188739906113</v>
       </c>
       <c r="E24">
-        <v>0.9779354892688156</v>
+        <v>0.9779354892688138</v>
       </c>
       <c r="F24">
-        <v>0.9904257275444627</v>
+        <v>0.990425727544461</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03233819451525</v>
+        <v>1.032338194515249</v>
       </c>
       <c r="J24">
-        <v>0.9959598268505353</v>
+        <v>0.9959598268505335</v>
       </c>
       <c r="K24">
-        <v>1.007857198479267</v>
+        <v>1.007857198479265</v>
       </c>
       <c r="L24">
-        <v>0.9923614882214489</v>
+        <v>0.9923614882214471</v>
       </c>
       <c r="M24">
-        <v>1.004623090519295</v>
+        <v>1.004623090519293</v>
       </c>
       <c r="N24">
-        <v>0.9973742040428519</v>
+        <v>0.9973742040428502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9842665384168648</v>
+        <v>0.984266538416864</v>
       </c>
       <c r="D25">
-        <v>1.007169750192565</v>
+        <v>1.007169750192564</v>
       </c>
       <c r="E25">
-        <v>0.9922853252913498</v>
+        <v>0.9922853252913489</v>
       </c>
       <c r="F25">
-        <v>1.005748005944295</v>
+        <v>1.005748005944294</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1.037347505826272</v>
       </c>
       <c r="J25">
-        <v>1.009335250698769</v>
+        <v>1.009335250698768</v>
       </c>
       <c r="K25">
         <v>1.019657775342734</v>
@@ -1394,7 +1394,7 @@
         <v>1.018257742058755</v>
       </c>
       <c r="N25">
-        <v>1.010768622527132</v>
+        <v>1.010768622527131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969881303255602</v>
+        <v>0.9971900247011246</v>
       </c>
       <c r="D2">
-        <v>1.017178274699624</v>
+        <v>1.018839179535568</v>
       </c>
       <c r="E2">
-        <v>1.002973967826566</v>
+        <v>1.003860568254795</v>
       </c>
       <c r="F2">
-        <v>1.017161943027818</v>
+        <v>1.024872081351216</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041020711689758</v>
+        <v>1.042363535685086</v>
       </c>
       <c r="J2">
-        <v>1.019259300604056</v>
+        <v>1.019455107711088</v>
       </c>
       <c r="K2">
-        <v>1.028403366020434</v>
+        <v>1.03004214846484</v>
       </c>
       <c r="L2">
-        <v>1.014392025463088</v>
+        <v>1.015266379976895</v>
       </c>
       <c r="M2">
-        <v>1.028387252328463</v>
+        <v>1.035995451158878</v>
       </c>
       <c r="N2">
-        <v>1.02070676572159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009986487772054</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037060367248093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005760371718438</v>
+        <v>1.002019406742634</v>
       </c>
       <c r="D3">
-        <v>1.024087206971771</v>
+        <v>1.02219307107442</v>
       </c>
       <c r="E3">
-        <v>1.010359764363814</v>
+        <v>1.007750868071316</v>
       </c>
       <c r="F3">
-        <v>1.025049384698936</v>
+        <v>1.028222154817107</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043524597706677</v>
+        <v>1.043326764232666</v>
       </c>
       <c r="J3">
-        <v>1.026095225537214</v>
+        <v>1.022455171669531</v>
       </c>
       <c r="K3">
-        <v>1.034420891665742</v>
+        <v>1.032549648924562</v>
       </c>
       <c r="L3">
-        <v>1.020861784146089</v>
+        <v>1.018285526457692</v>
       </c>
       <c r="M3">
-        <v>1.035371480411175</v>
+        <v>1.038506226569079</v>
       </c>
       <c r="N3">
-        <v>1.027552398452244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011035231220217</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039047484417875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011244121444459</v>
+        <v>1.005078211451934</v>
       </c>
       <c r="D4">
-        <v>1.02840849010329</v>
+        <v>1.024319759583612</v>
       </c>
       <c r="E4">
-        <v>1.014982979420492</v>
+        <v>1.010220807792763</v>
       </c>
       <c r="F4">
-        <v>1.029986805007119</v>
+        <v>1.030351307321325</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045075838574155</v>
+        <v>1.043925616747895</v>
       </c>
       <c r="J4">
-        <v>1.030364510108947</v>
+        <v>1.02435290209474</v>
       </c>
       <c r="K4">
-        <v>1.038175726044791</v>
+        <v>1.034133266309524</v>
       </c>
       <c r="L4">
-        <v>1.024903874731986</v>
+        <v>1.020197422137736</v>
       </c>
       <c r="M4">
-        <v>1.03973630071143</v>
+        <v>1.040096715536538</v>
       </c>
       <c r="N4">
-        <v>1.031827745897763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011697833849052</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.040306251236478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013506391651989</v>
+        <v>1.006348884010211</v>
       </c>
       <c r="D5">
-        <v>1.030191604106459</v>
+        <v>1.025203726308824</v>
       </c>
       <c r="E5">
-        <v>1.016891598351048</v>
+        <v>1.011248227156794</v>
       </c>
       <c r="F5">
-        <v>1.032025182484701</v>
+        <v>1.031237470678883</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045712345041908</v>
+        <v>1.044171644320263</v>
       </c>
       <c r="J5">
-        <v>1.032124707589956</v>
+        <v>1.025140619193776</v>
       </c>
       <c r="K5">
-        <v>1.039722984418581</v>
+        <v>1.034789970554503</v>
       </c>
       <c r="L5">
-        <v>1.026570744471446</v>
+        <v>1.020991521254399</v>
       </c>
       <c r="M5">
-        <v>1.041536558052927</v>
+        <v>1.040757429657775</v>
       </c>
       <c r="N5">
-        <v>1.033590443061092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011972671394958</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.040829162114757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013883790695167</v>
+        <v>1.006561357685513</v>
       </c>
       <c r="D6">
-        <v>1.030489088664112</v>
+        <v>1.025351565405412</v>
       </c>
       <c r="E6">
-        <v>1.017210076401621</v>
+        <v>1.011420104678827</v>
       </c>
       <c r="F6">
-        <v>1.032365314961016</v>
+        <v>1.031385746095548</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045818324139177</v>
+        <v>1.04421262068876</v>
       </c>
       <c r="J6">
-        <v>1.032418284637949</v>
+        <v>1.025272297975653</v>
       </c>
       <c r="K6">
-        <v>1.039980996008268</v>
+        <v>1.034899710932403</v>
       </c>
       <c r="L6">
-        <v>1.02684877548566</v>
+        <v>1.021124296414081</v>
       </c>
       <c r="M6">
-        <v>1.041836855252128</v>
+        <v>1.040867908587268</v>
       </c>
       <c r="N6">
-        <v>1.033884437022168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012018602769625</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.040916598734853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011274515634226</v>
+        <v>1.005095249409697</v>
       </c>
       <c r="D7">
-        <v>1.028432445277183</v>
+        <v>1.02433161043422</v>
       </c>
       <c r="E7">
-        <v>1.015008617005908</v>
+        <v>1.010234578716093</v>
       </c>
       <c r="F7">
-        <v>1.030014185407531</v>
+        <v>1.030363182988702</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045084403953196</v>
+        <v>1.043928926545321</v>
       </c>
       <c r="J7">
-        <v>1.030388163120027</v>
+        <v>1.024363466828567</v>
       </c>
       <c r="K7">
-        <v>1.03819652099659</v>
+        <v>1.034142076436564</v>
       </c>
       <c r="L7">
-        <v>1.024926272292618</v>
+        <v>1.020208070481224</v>
       </c>
       <c r="M7">
-        <v>1.039760489411187</v>
+        <v>1.04010557486008</v>
       </c>
       <c r="N7">
-        <v>1.031851432498832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011701520718247</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040313262798912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9999944963173617</v>
+        <v>0.9988361897687013</v>
       </c>
       <c r="D8">
-        <v>1.01954546717956</v>
+        <v>1.019981849439883</v>
       </c>
       <c r="E8">
-        <v>1.005503793707716</v>
+        <v>1.005185357992675</v>
       </c>
       <c r="F8">
-        <v>1.019863552136178</v>
+        <v>1.026012426355188</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041881737582143</v>
+        <v>1.042694191825996</v>
       </c>
       <c r="J8">
-        <v>1.021602858226006</v>
+        <v>1.020478205632822</v>
       </c>
       <c r="K8">
-        <v>1.030467034625488</v>
+        <v>1.030897789026742</v>
       </c>
       <c r="L8">
-        <v>1.016609725177988</v>
+        <v>1.016295545463668</v>
       </c>
       <c r="M8">
-        <v>1.030781016763995</v>
+        <v>1.03685120405842</v>
       </c>
       <c r="N8">
-        <v>1.023053651464173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010344297994204</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037737641221848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9784914760848081</v>
+        <v>0.9872726571295976</v>
       </c>
       <c r="D9">
-        <v>1.002631547171182</v>
+        <v>1.011968526726844</v>
       </c>
       <c r="E9">
-        <v>0.9874421586393558</v>
+        <v>0.9959067776295046</v>
       </c>
       <c r="F9">
-        <v>1.000576466270163</v>
+        <v>1.018036142740619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035666019225656</v>
+        <v>1.040325836795174</v>
       </c>
       <c r="J9">
-        <v>1.004827306878658</v>
+        <v>1.0132829969668</v>
       </c>
       <c r="K9">
-        <v>1.015682073156726</v>
+        <v>1.024870362194965</v>
       </c>
       <c r="L9">
-        <v>1.000742317784093</v>
+        <v>1.009066615446347</v>
       </c>
       <c r="M9">
-        <v>1.013660197629972</v>
+        <v>1.030843219999216</v>
       </c>
       <c r="N9">
-        <v>1.006254276909729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.007824833832327</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.032982690412982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9628156318262732</v>
+        <v>0.9792597664640003</v>
       </c>
       <c r="D10">
-        <v>0.9903331441191594</v>
+        <v>1.006467116389799</v>
       </c>
       <c r="E10">
-        <v>0.9743255355506131</v>
+        <v>0.989525589347386</v>
       </c>
       <c r="F10">
-        <v>0.9865713776969116</v>
+        <v>1.012639331863437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031065912874209</v>
+        <v>1.038654963194631</v>
       </c>
       <c r="J10">
-        <v>0.9925863898348473</v>
+        <v>1.008321133982462</v>
       </c>
       <c r="K10">
-        <v>1.004879158064458</v>
+        <v>1.02072057860681</v>
       </c>
       <c r="L10">
-        <v>0.9891743571598778</v>
+        <v>1.004086573369561</v>
       </c>
       <c r="M10">
-        <v>1.00118739810189</v>
+        <v>1.026784068577997</v>
       </c>
       <c r="N10">
-        <v>0.9939959763596631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006093375799166</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029822087272878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9556419611509499</v>
+        <v>0.9764782146864168</v>
       </c>
       <c r="D11">
-        <v>0.9847162597322495</v>
+        <v>1.004816681523941</v>
       </c>
       <c r="E11">
-        <v>0.9683380488469783</v>
+        <v>0.9874145366111962</v>
       </c>
       <c r="F11">
-        <v>0.9801787528681652</v>
+        <v>1.011448868395696</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028946235925339</v>
+        <v>1.038271948117528</v>
       </c>
       <c r="J11">
-        <v>0.9869840442400304</v>
+        <v>1.006863357181996</v>
       </c>
       <c r="K11">
-        <v>0.999932277752492</v>
+        <v>1.0196483303788</v>
       </c>
       <c r="L11">
-        <v>0.9838828272874346</v>
+        <v>1.002577764274611</v>
       </c>
       <c r="M11">
-        <v>0.9954844062487401</v>
+        <v>1.026158058044338</v>
       </c>
       <c r="N11">
-        <v>0.9883856747915034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005667603552138</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029767304599573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529123617548273</v>
+        <v>0.9757398216967891</v>
       </c>
       <c r="D12">
-        <v>0.9825810610169222</v>
+        <v>1.004504876597084</v>
       </c>
       <c r="E12">
-        <v>0.9660623564760915</v>
+        <v>0.9869062840856162</v>
       </c>
       <c r="F12">
-        <v>0.9777491505791424</v>
+        <v>1.011450760530984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028137688243725</v>
+        <v>1.03827283255579</v>
       </c>
       <c r="J12">
-        <v>0.9848524651871491</v>
+        <v>1.006607625781335</v>
       </c>
       <c r="K12">
-        <v>0.9980497662893747</v>
+        <v>1.01954627621865</v>
       </c>
       <c r="L12">
-        <v>0.9818699690828097</v>
+        <v>1.002288713136331</v>
       </c>
       <c r="M12">
-        <v>0.9933154287193748</v>
+        <v>1.026361821701776</v>
       </c>
       <c r="N12">
-        <v>0.9862510686518715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005648627718789</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030257779970053</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535009361459508</v>
+        <v>0.9765288297641845</v>
       </c>
       <c r="D13">
-        <v>0.9830413684617259</v>
+        <v>1.00520540908201</v>
       </c>
       <c r="E13">
-        <v>0.9665529355437074</v>
+        <v>0.9875977364313052</v>
       </c>
       <c r="F13">
-        <v>0.9782729051161452</v>
+        <v>1.012384004318208</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028312119936826</v>
+        <v>1.038574453956955</v>
       </c>
       <c r="J13">
-        <v>0.985312080903614</v>
+        <v>1.007264461774758</v>
       </c>
       <c r="K13">
-        <v>0.9984556907448069</v>
+        <v>1.020189855346515</v>
       </c>
       <c r="L13">
-        <v>0.9823039644571288</v>
+        <v>1.002921617707841</v>
       </c>
       <c r="M13">
-        <v>0.9937830667244498</v>
+        <v>1.027234480458204</v>
       </c>
       <c r="N13">
-        <v>0.9867113370753727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005942299886085</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031226517197575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9554177019479108</v>
+        <v>0.9777674528586239</v>
       </c>
       <c r="D14">
-        <v>0.9845407919296066</v>
+        <v>1.006149039758682</v>
       </c>
       <c r="E14">
-        <v>0.9681510281130957</v>
+        <v>0.9886202862776035</v>
       </c>
       <c r="F14">
-        <v>0.9799790819952209</v>
+        <v>1.013453610323018</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028879846499996</v>
+        <v>1.038919023319009</v>
       </c>
       <c r="J14">
-        <v>0.9868089134325893</v>
+        <v>1.008132323013084</v>
       </c>
       <c r="K14">
-        <v>0.999777616438042</v>
+        <v>1.020972736420527</v>
       </c>
       <c r="L14">
-        <v>0.9837174410143263</v>
+        <v>1.003777301557042</v>
       </c>
       <c r="M14">
-        <v>0.99530618419974</v>
+        <v>1.028142836373681</v>
       </c>
       <c r="N14">
-        <v>0.9882102952782278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.006287273603741</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032118934629112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9565898444865875</v>
+        <v>0.9784048641644665</v>
       </c>
       <c r="D15">
-        <v>0.9854579999208918</v>
+        <v>1.00660503096565</v>
       </c>
       <c r="E15">
-        <v>0.9691286409690778</v>
+        <v>0.9891340507753668</v>
       </c>
       <c r="F15">
-        <v>0.981022823889781</v>
+        <v>1.01393166150217</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029226765987475</v>
+        <v>1.039071096079099</v>
       </c>
       <c r="J15">
-        <v>0.9877242815840263</v>
+        <v>1.008547747613232</v>
       </c>
       <c r="K15">
-        <v>1.000585982654584</v>
+        <v>1.021332210385992</v>
       </c>
       <c r="L15">
-        <v>0.9845818957082124</v>
+        <v>1.004190748482656</v>
       </c>
       <c r="M15">
-        <v>0.9962377463206682</v>
+        <v>1.028525048636652</v>
       </c>
       <c r="N15">
-        <v>0.9891269633574343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.006441140510971</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.032458770581619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9632830230304161</v>
+        <v>0.9816482031526845</v>
       </c>
       <c r="D16">
-        <v>0.9906993641092553</v>
+        <v>1.008802229385892</v>
       </c>
       <c r="E16">
-        <v>0.9747159762343378</v>
+        <v>0.9916960862459416</v>
       </c>
       <c r="F16">
-        <v>0.986988246725934</v>
+        <v>1.016068801956131</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031203732551678</v>
+        <v>1.039734563760358</v>
       </c>
       <c r="J16">
-        <v>0.9929514085874759</v>
+        <v>1.010530159820612</v>
       </c>
       <c r="K16">
-        <v>1.005201421457047</v>
+        <v>1.022978138669596</v>
       </c>
       <c r="L16">
-        <v>0.9895191859712548</v>
+        <v>1.006179782696131</v>
       </c>
       <c r="M16">
-        <v>1.001559093067874</v>
+        <v>1.030118022097821</v>
       </c>
       <c r="N16">
-        <v>0.9943615134807886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007119071123686</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.033678927898228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9673735722707996</v>
+        <v>0.9834871612648777</v>
       </c>
       <c r="D17">
-        <v>0.9939057668604335</v>
+        <v>1.009993392001567</v>
       </c>
       <c r="E17">
-        <v>0.9781347798515382</v>
+        <v>0.9931274891373556</v>
       </c>
       <c r="F17">
-        <v>0.9906385130697323</v>
+        <v>1.017142720788939</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032408300433974</v>
+        <v>1.04006003622675</v>
       </c>
       <c r="J17">
-        <v>0.9961459634582868</v>
+        <v>1.011595034440445</v>
       </c>
       <c r="K17">
-        <v>1.008021500532214</v>
+        <v>1.023828440683453</v>
       </c>
       <c r="L17">
-        <v>0.9925373636865136</v>
+        <v>1.007257101031368</v>
       </c>
       <c r="M17">
-        <v>1.004812698502206</v>
+        <v>1.030856707174967</v>
       </c>
       <c r="N17">
-        <v>0.9975606049859366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.007457779437215</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.034133077808611</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697228143023799</v>
+        <v>0.9842821644105942</v>
       </c>
       <c r="D18">
-        <v>0.995748252816527</v>
+        <v>1.010410562270248</v>
       </c>
       <c r="E18">
-        <v>0.9800996114957143</v>
+        <v>0.9937077404288329</v>
       </c>
       <c r="F18">
-        <v>0.9927364089119374</v>
+        <v>1.017353246871172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033098725087596</v>
+        <v>1.040117408453025</v>
       </c>
       <c r="J18">
-        <v>0.9979805572045681</v>
+        <v>1.011952411940744</v>
       </c>
       <c r="K18">
-        <v>1.009640782773138</v>
+        <v>1.024051983296665</v>
       </c>
       <c r="L18">
-        <v>0.9942709267268732</v>
+        <v>1.00763597764817</v>
       </c>
       <c r="M18">
-        <v>1.006681710463836</v>
+        <v>1.030879015889714</v>
       </c>
       <c r="N18">
-        <v>0.9993978040657687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.007529254881538</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033911584014309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705178128621742</v>
+        <v>0.9841301016863684</v>
       </c>
       <c r="D19">
-        <v>0.9963719248045421</v>
+        <v>1.010124690572354</v>
       </c>
       <c r="E19">
-        <v>0.9807647489222133</v>
+        <v>0.9935165715976355</v>
       </c>
       <c r="F19">
-        <v>0.993446597890034</v>
+        <v>1.01677197020867</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033332131855733</v>
+        <v>1.039934593192059</v>
       </c>
       <c r="J19">
-        <v>0.9986013777980735</v>
+        <v>1.011668136445956</v>
       </c>
       <c r="K19">
-        <v>1.010188697349675</v>
+        <v>1.023707299074733</v>
       </c>
       <c r="L19">
-        <v>0.9948576020320075</v>
+        <v>1.007383013850997</v>
       </c>
       <c r="M19">
-        <v>1.007314261998575</v>
+        <v>1.03024431854706</v>
       </c>
       <c r="N19">
-        <v>1.000019506295726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007363580683241</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033081895745316</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9669385385537315</v>
+        <v>0.9813444586735279</v>
       </c>
       <c r="D20">
-        <v>0.9935646546789538</v>
+        <v>1.007898041216033</v>
       </c>
       <c r="E20">
-        <v>0.977771041356338</v>
+        <v>0.9911833063177424</v>
       </c>
       <c r="F20">
-        <v>0.9902501442806332</v>
+        <v>1.014043962320549</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032280334915064</v>
+        <v>1.039094647040728</v>
       </c>
       <c r="J20">
-        <v>0.995806225453424</v>
+        <v>1.009613957014536</v>
       </c>
       <c r="K20">
-        <v>1.007721613673228</v>
+        <v>1.021803420356373</v>
       </c>
       <c r="L20">
-        <v>0.9922163558744646</v>
+        <v>1.005382978771377</v>
       </c>
       <c r="M20">
-        <v>1.004466627380519</v>
+        <v>1.027844280297192</v>
       </c>
       <c r="N20">
-        <v>0.9972203845141381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00654511517709</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030650482051789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548551181967327</v>
+        <v>0.9751529758434833</v>
       </c>
       <c r="D21">
-        <v>0.9841006419017609</v>
+        <v>1.003607729839668</v>
       </c>
       <c r="E21">
-        <v>0.9676819042087528</v>
+        <v>0.9862493861404414</v>
       </c>
       <c r="F21">
-        <v>0.9794782276092857</v>
+        <v>1.009760656027639</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02871326833946</v>
+        <v>1.037746090128495</v>
       </c>
       <c r="J21">
-        <v>0.9863695775674791</v>
+        <v>1.005727568929178</v>
       </c>
       <c r="K21">
-        <v>0.9993896257465512</v>
+        <v>1.018521073517304</v>
       </c>
       <c r="L21">
-        <v>0.9833025579936816</v>
+        <v>1.001496036445273</v>
       </c>
       <c r="M21">
-        <v>0.9948591082406627</v>
+        <v>1.024559439628014</v>
       </c>
       <c r="N21">
-        <v>0.9877703355057968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005173087036291</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.028009429234995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468774340991645</v>
+        <v>0.9712103394454384</v>
       </c>
       <c r="D22">
-        <v>0.9778645278341007</v>
+        <v>1.00089738143874</v>
       </c>
       <c r="E22">
-        <v>0.961036099589002</v>
+        <v>0.9831224060097242</v>
       </c>
       <c r="F22">
-        <v>0.9723831027318246</v>
+        <v>1.007087053596124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02634656881399</v>
+        <v>1.036889389434445</v>
       </c>
       <c r="J22">
-        <v>0.9801402186016334</v>
+        <v>1.003268289903614</v>
       </c>
       <c r="K22">
-        <v>0.9938876270530165</v>
+        <v>1.016451081964466</v>
       </c>
       <c r="L22">
-        <v>0.9774210783691545</v>
+        <v>0.9990357933687346</v>
       </c>
       <c r="M22">
-        <v>0.9885222523895387</v>
+        <v>1.022519409915833</v>
       </c>
       <c r="N22">
-        <v>0.9815321301357021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004308956996871</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026394851972483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511452787675497</v>
+        <v>0.9733099740932566</v>
       </c>
       <c r="D23">
-        <v>0.9811994050703868</v>
+        <v>1.002340154043349</v>
       </c>
       <c r="E23">
-        <v>0.9645898875202337</v>
+        <v>0.984786774931009</v>
       </c>
       <c r="F23">
-        <v>0.9761771171503456</v>
+        <v>1.008509741183688</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027613711536266</v>
+        <v>1.037346582241653</v>
       </c>
       <c r="J23">
-        <v>0.9834725933427079</v>
+        <v>1.004578009883535</v>
       </c>
       <c r="K23">
-        <v>0.9968310470850075</v>
+        <v>1.017553653862966</v>
       </c>
       <c r="L23">
-        <v>0.9805670863527921</v>
+        <v>1.00034579738477</v>
       </c>
       <c r="M23">
-        <v>0.9919116096054647</v>
+        <v>1.023605531784923</v>
       </c>
       <c r="N23">
-        <v>0.9848692372311377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004769211105597</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027254461334046</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671352244831979</v>
+        <v>0.9813696552139803</v>
       </c>
       <c r="D24">
-        <v>0.9937188739906113</v>
+        <v>1.007891051543634</v>
       </c>
       <c r="E24">
-        <v>0.9779354892688138</v>
+        <v>0.9911945325502186</v>
       </c>
       <c r="F24">
-        <v>0.990425727544461</v>
+        <v>1.01399476528863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032338194515249</v>
+        <v>1.039080258031088</v>
       </c>
       <c r="J24">
-        <v>0.9959598268505335</v>
+        <v>1.009604218754375</v>
       </c>
       <c r="K24">
-        <v>1.007857198479265</v>
+        <v>1.021780994244536</v>
       </c>
       <c r="L24">
-        <v>0.9923614882214471</v>
+        <v>1.005378067022707</v>
       </c>
       <c r="M24">
-        <v>1.004623090519293</v>
+        <v>1.027780494985989</v>
       </c>
       <c r="N24">
-        <v>0.9973742040428502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006534328514262</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030558719082454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984266538416864</v>
+        <v>0.9903295263276156</v>
       </c>
       <c r="D25">
-        <v>1.007169750192564</v>
+        <v>1.014083715010699</v>
       </c>
       <c r="E25">
-        <v>0.9922853252913489</v>
+        <v>0.9983534301569926</v>
       </c>
       <c r="F25">
-        <v>1.005748005944294</v>
+        <v>1.020137009076621</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037347505826272</v>
+        <v>1.040961758294996</v>
       </c>
       <c r="J25">
-        <v>1.009335250698768</v>
+        <v>1.015186781613765</v>
       </c>
       <c r="K25">
-        <v>1.019657775342734</v>
+        <v>1.026467263851389</v>
       </c>
       <c r="L25">
-        <v>1.00500459393874</v>
+        <v>1.010977360891167</v>
       </c>
       <c r="M25">
-        <v>1.018257742058755</v>
+        <v>1.032430564280689</v>
       </c>
       <c r="N25">
-        <v>1.010768622527131</v>
+        <v>1.008492108608593</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034238979143432</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9971900247011246</v>
+        <v>0.9978248082084724</v>
       </c>
       <c r="D2">
-        <v>1.018839179535568</v>
+        <v>1.019105736856773</v>
       </c>
       <c r="E2">
-        <v>1.003860568254795</v>
+        <v>1.004440240155247</v>
       </c>
       <c r="F2">
-        <v>1.024872081351216</v>
+        <v>1.025139282981726</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042363535685086</v>
+        <v>1.042512284968798</v>
       </c>
       <c r="J2">
-        <v>1.019455107711088</v>
+        <v>1.020070774106896</v>
       </c>
       <c r="K2">
-        <v>1.03004214846484</v>
+        <v>1.030305163808863</v>
       </c>
       <c r="L2">
-        <v>1.015266379976895</v>
+        <v>1.015838060056517</v>
       </c>
       <c r="M2">
-        <v>1.035995451158878</v>
+        <v>1.036259154435518</v>
       </c>
       <c r="N2">
-        <v>1.009986487772054</v>
+        <v>1.012243666406889</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037060367248093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03726907168238</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020054582057505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002019406742634</v>
+        <v>1.00230996835485</v>
       </c>
       <c r="D3">
-        <v>1.02219307107442</v>
+        <v>1.022094602039375</v>
       </c>
       <c r="E3">
-        <v>1.007750868071316</v>
+        <v>1.008028600245804</v>
       </c>
       <c r="F3">
-        <v>1.028222154817107</v>
+        <v>1.028212636067395</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043326764232666</v>
+        <v>1.043319334283757</v>
       </c>
       <c r="J3">
-        <v>1.022455171669531</v>
+        <v>1.022737858774284</v>
       </c>
       <c r="K3">
-        <v>1.032549648924562</v>
+        <v>1.032452372900751</v>
       </c>
       <c r="L3">
-        <v>1.018285526457692</v>
+        <v>1.018559774043942</v>
       </c>
       <c r="M3">
-        <v>1.038506226569079</v>
+        <v>1.038496821461321</v>
       </c>
       <c r="N3">
-        <v>1.011035231220217</v>
+        <v>1.012983128009263</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039047484417875</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.0390400408906</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020535669992678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005078211451934</v>
+        <v>1.005154172747927</v>
       </c>
       <c r="D4">
-        <v>1.024319759583612</v>
+        <v>1.023992383053713</v>
       </c>
       <c r="E4">
-        <v>1.010220807792763</v>
+        <v>1.010310042443218</v>
       </c>
       <c r="F4">
-        <v>1.030351307321325</v>
+        <v>1.030168579149507</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043925616747895</v>
+        <v>1.043820176889603</v>
       </c>
       <c r="J4">
-        <v>1.02435290209474</v>
+        <v>1.024426946906397</v>
       </c>
       <c r="K4">
-        <v>1.034133266309524</v>
+        <v>1.033809614293485</v>
       </c>
       <c r="L4">
-        <v>1.020197422137736</v>
+        <v>1.020285606734531</v>
       </c>
       <c r="M4">
-        <v>1.040096715536538</v>
+        <v>1.039916036013274</v>
       </c>
       <c r="N4">
-        <v>1.011697833849052</v>
+        <v>1.013450983074233</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040306251236478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040163255455379</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020836997448667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006348884010211</v>
+        <v>1.006336468266896</v>
       </c>
       <c r="D5">
-        <v>1.025203726308824</v>
+        <v>1.024781781491182</v>
       </c>
       <c r="E5">
-        <v>1.011248227156794</v>
+        <v>1.011259782723098</v>
       </c>
       <c r="F5">
-        <v>1.031237470678883</v>
+        <v>1.030983257144719</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044171644320263</v>
+        <v>1.044025699460007</v>
       </c>
       <c r="J5">
-        <v>1.025140619193776</v>
+        <v>1.025128507155751</v>
       </c>
       <c r="K5">
-        <v>1.034789970554503</v>
+        <v>1.034372697022444</v>
       </c>
       <c r="L5">
-        <v>1.020991521254399</v>
+        <v>1.021002944566356</v>
       </c>
       <c r="M5">
-        <v>1.040757429657775</v>
+        <v>1.040505989632957</v>
       </c>
       <c r="N5">
-        <v>1.011972671394958</v>
+        <v>1.013645192849432</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040829162114757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040630164257057</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02096133946208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006561357685513</v>
+        <v>1.006534208045065</v>
       </c>
       <c r="D6">
-        <v>1.025351565405412</v>
+        <v>1.024913837507714</v>
       </c>
       <c r="E6">
-        <v>1.011420104678827</v>
+        <v>1.011418707109211</v>
       </c>
       <c r="F6">
-        <v>1.031385746095548</v>
+        <v>1.031119606059541</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04421262068876</v>
+        <v>1.044059914933797</v>
       </c>
       <c r="J6">
-        <v>1.025272297975653</v>
+        <v>1.025245808976263</v>
       </c>
       <c r="K6">
-        <v>1.034899710932403</v>
+        <v>1.034466806676979</v>
       </c>
       <c r="L6">
-        <v>1.021124296414081</v>
+        <v>1.021122914764567</v>
       </c>
       <c r="M6">
-        <v>1.040867908587268</v>
+        <v>1.04060465878507</v>
       </c>
       <c r="N6">
-        <v>1.012018602769625</v>
+        <v>1.013677658202551</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040916598734853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040708254257053</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020982081468132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005095249409697</v>
+        <v>1.005181847103196</v>
       </c>
       <c r="D7">
-        <v>1.02433161043422</v>
+        <v>1.02401186398282</v>
       </c>
       <c r="E7">
-        <v>1.010234578716093</v>
+        <v>1.010333619921437</v>
       </c>
       <c r="F7">
-        <v>1.030363182988702</v>
+        <v>1.03018692147886</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043928926545321</v>
+        <v>1.043827100460029</v>
       </c>
       <c r="J7">
-        <v>1.024363466828567</v>
+        <v>1.024447880614081</v>
       </c>
       <c r="K7">
-        <v>1.034142076436564</v>
+        <v>1.033825966340722</v>
       </c>
       <c r="L7">
-        <v>1.020208070481224</v>
+        <v>1.020305946679939</v>
       </c>
       <c r="M7">
-        <v>1.04010557486008</v>
+        <v>1.039931288767901</v>
       </c>
       <c r="N7">
-        <v>1.011701520718247</v>
+        <v>1.013483248134734</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040313262798912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040175326993541</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020841463316768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9988361897687013</v>
+        <v>0.9993896080773811</v>
       </c>
       <c r="D8">
-        <v>1.019981849439883</v>
+        <v>1.020151343217766</v>
       </c>
       <c r="E8">
-        <v>1.005185357992675</v>
+        <v>1.005695304761783</v>
       </c>
       <c r="F8">
-        <v>1.026012426355188</v>
+        <v>1.026208068922916</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042694191825996</v>
+        <v>1.042802575592455</v>
       </c>
       <c r="J8">
-        <v>1.020478205632822</v>
+        <v>1.021015531334585</v>
       </c>
       <c r="K8">
-        <v>1.030897789026742</v>
+        <v>1.031065098530413</v>
       </c>
       <c r="L8">
-        <v>1.016295545463668</v>
+        <v>1.016798678252189</v>
       </c>
       <c r="M8">
-        <v>1.03685120405842</v>
+        <v>1.037044362323869</v>
       </c>
       <c r="N8">
-        <v>1.010344297994204</v>
+        <v>1.012586363105159</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037737641221848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037890513610515</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020228071510945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9872726571295976</v>
+        <v>0.9886783978266556</v>
       </c>
       <c r="D9">
-        <v>1.011968526726844</v>
+        <v>1.013031428661118</v>
       </c>
       <c r="E9">
-        <v>0.9959067776295046</v>
+        <v>0.9971627402332243</v>
       </c>
       <c r="F9">
-        <v>1.018036142740619</v>
+        <v>1.018911487604666</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040325836795174</v>
+        <v>1.040816228203605</v>
       </c>
       <c r="J9">
-        <v>1.0132829969668</v>
+        <v>1.014637384679912</v>
       </c>
       <c r="K9">
-        <v>1.024870362194965</v>
+        <v>1.025916559835554</v>
       </c>
       <c r="L9">
-        <v>1.009066615446347</v>
+        <v>1.010302018338376</v>
       </c>
       <c r="M9">
-        <v>1.030843219999216</v>
+        <v>1.031705013538208</v>
       </c>
       <c r="N9">
-        <v>1.007824833832327</v>
+        <v>1.010825784304468</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032982690412982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033664749097972</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019059528388511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9792597664640003</v>
+        <v>0.9813258241200241</v>
       </c>
       <c r="D10">
-        <v>1.006467116389799</v>
+        <v>1.008198080525567</v>
       </c>
       <c r="E10">
-        <v>0.989525589347386</v>
+        <v>0.9913590333464436</v>
       </c>
       <c r="F10">
-        <v>1.012639331863437</v>
+        <v>1.014027844293</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038654963194631</v>
+        <v>1.03943133806561</v>
       </c>
       <c r="J10">
-        <v>1.008321133982462</v>
+        <v>1.010300453221334</v>
       </c>
       <c r="K10">
-        <v>1.02072057860681</v>
+        <v>1.022420877068396</v>
       </c>
       <c r="L10">
-        <v>1.004086573369561</v>
+        <v>1.005886075675647</v>
       </c>
       <c r="M10">
-        <v>1.026784068577997</v>
+        <v>1.028148358042621</v>
       </c>
       <c r="N10">
-        <v>1.006093375799166</v>
+        <v>1.009747545697242</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029822087272878</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030901777725909</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018263170689627</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9764782146864168</v>
+        <v>0.9787948843691473</v>
       </c>
       <c r="D11">
-        <v>1.004816681523941</v>
+        <v>1.006781380675156</v>
       </c>
       <c r="E11">
-        <v>0.9874145366111962</v>
+        <v>0.9894647501180293</v>
       </c>
       <c r="F11">
-        <v>1.011448868395696</v>
+        <v>1.013019679042263</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038271948117528</v>
+        <v>1.03914265969026</v>
       </c>
       <c r="J11">
-        <v>1.006863357181996</v>
+        <v>1.009077225250204</v>
       </c>
       <c r="K11">
-        <v>1.0196483303788</v>
+        <v>1.021576533282605</v>
       </c>
       <c r="L11">
-        <v>1.002577764274611</v>
+        <v>1.004588118743179</v>
       </c>
       <c r="M11">
-        <v>1.026158058044338</v>
+        <v>1.027700170326839</v>
       </c>
       <c r="N11">
-        <v>1.005667603552138</v>
+        <v>1.009701555420054</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029767304599573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030987097676343</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018133319322429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9757398216967891</v>
+        <v>0.9781031449727116</v>
       </c>
       <c r="D12">
-        <v>1.004504876597084</v>
+        <v>1.006508752746734</v>
       </c>
       <c r="E12">
-        <v>0.9869062840856162</v>
+        <v>0.9889934639039526</v>
       </c>
       <c r="F12">
-        <v>1.011450760530984</v>
+        <v>1.013052428503098</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.03827283255579</v>
+        <v>1.039154162151112</v>
       </c>
       <c r="J12">
-        <v>1.006607625781335</v>
+        <v>1.008864025283098</v>
       </c>
       <c r="K12">
-        <v>1.01954627621865</v>
+        <v>1.021512308737295</v>
       </c>
       <c r="L12">
-        <v>1.002288713136331</v>
+        <v>1.004334613991807</v>
       </c>
       <c r="M12">
-        <v>1.026361821701776</v>
+        <v>1.027933765256926</v>
       </c>
       <c r="N12">
-        <v>1.005648627718789</v>
+        <v>1.009794526695729</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030257779970053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031500741262239</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018166263905745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9765288297641845</v>
+        <v>0.9787660572346503</v>
       </c>
       <c r="D13">
-        <v>1.00520540908201</v>
+        <v>1.007086698705602</v>
       </c>
       <c r="E13">
-        <v>0.9875977364313052</v>
+        <v>0.9895691262880206</v>
       </c>
       <c r="F13">
-        <v>1.012384004318208</v>
+        <v>1.013890089479124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038574453956955</v>
+        <v>1.039396416330236</v>
       </c>
       <c r="J13">
-        <v>1.007264461774758</v>
+        <v>1.009401057528959</v>
       </c>
       <c r="K13">
-        <v>1.020189855346515</v>
+        <v>1.022035794381148</v>
       </c>
       <c r="L13">
-        <v>1.002921617707841</v>
+        <v>1.004854215522258</v>
       </c>
       <c r="M13">
-        <v>1.027234480458204</v>
+        <v>1.028712772104083</v>
       </c>
       <c r="N13">
-        <v>1.005942299886085</v>
+        <v>1.00996193234663</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031226517197575</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032395128747168</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018324720374622</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9777674528586239</v>
+        <v>0.9798405280640661</v>
       </c>
       <c r="D14">
-        <v>1.006149039758682</v>
+        <v>1.007873547163183</v>
       </c>
       <c r="E14">
-        <v>0.9886202862776035</v>
+        <v>0.9904438370394517</v>
       </c>
       <c r="F14">
-        <v>1.013453610323018</v>
+        <v>1.014837410989051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038919023319009</v>
+        <v>1.039669107019201</v>
       </c>
       <c r="J14">
-        <v>1.008132323013084</v>
+        <v>1.010113587952535</v>
       </c>
       <c r="K14">
-        <v>1.020972736420527</v>
+        <v>1.022665268038818</v>
       </c>
       <c r="L14">
-        <v>1.003777301557042</v>
+        <v>1.00556545590589</v>
       </c>
       <c r="M14">
-        <v>1.028142836373681</v>
+        <v>1.029501446254414</v>
       </c>
       <c r="N14">
-        <v>1.006287273603741</v>
+        <v>1.010113153307715</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032118934629112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033192789757257</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018491673790052</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9784048641644665</v>
+        <v>0.9804014404925944</v>
       </c>
       <c r="D15">
-        <v>1.00660503096565</v>
+        <v>1.008256910055359</v>
       </c>
       <c r="E15">
-        <v>0.9891340507753668</v>
+        <v>0.990889499687335</v>
       </c>
       <c r="F15">
-        <v>1.01393166150217</v>
+        <v>1.015258806262024</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039071096079099</v>
+        <v>1.039788953593356</v>
       </c>
       <c r="J15">
-        <v>1.008547747613232</v>
+        <v>1.01045671951269</v>
       </c>
       <c r="K15">
-        <v>1.021332210385992</v>
+        <v>1.022953703214307</v>
       </c>
       <c r="L15">
-        <v>1.004190748482656</v>
+        <v>1.00591240048986</v>
       </c>
       <c r="M15">
-        <v>1.028525048636652</v>
+        <v>1.029828226793929</v>
       </c>
       <c r="N15">
-        <v>1.006441140510971</v>
+        <v>1.01017087809012</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.032458770581619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033488784865228</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018561959233133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9816482031526845</v>
+        <v>0.9833058377498202</v>
       </c>
       <c r="D16">
-        <v>1.008802229385892</v>
+        <v>1.010131256525217</v>
       </c>
       <c r="E16">
-        <v>0.9916960862459416</v>
+        <v>0.9931538563505323</v>
       </c>
       <c r="F16">
-        <v>1.016068801956131</v>
+        <v>1.017144526872005</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039734563760358</v>
+        <v>1.040314413024472</v>
       </c>
       <c r="J16">
-        <v>1.010530159820612</v>
+        <v>1.012118864688871</v>
       </c>
       <c r="K16">
-        <v>1.022978138669596</v>
+        <v>1.024283818392645</v>
       </c>
       <c r="L16">
-        <v>1.006179782696131</v>
+        <v>1.007610785239185</v>
       </c>
       <c r="M16">
-        <v>1.030118022097821</v>
+        <v>1.031175191179335</v>
       </c>
       <c r="N16">
-        <v>1.007119071123686</v>
+        <v>1.01040844446286</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033678927898228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.034514524311863</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018855432074521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9834871612648777</v>
+        <v>0.9849853134121135</v>
       </c>
       <c r="D17">
-        <v>1.009993392001567</v>
+        <v>1.011167713050557</v>
       </c>
       <c r="E17">
-        <v>0.9931274891373556</v>
+        <v>0.9944472037581057</v>
       </c>
       <c r="F17">
-        <v>1.017142720788939</v>
+        <v>1.018098630229728</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04006003622675</v>
+        <v>1.040576252341078</v>
       </c>
       <c r="J17">
-        <v>1.011595034440445</v>
+        <v>1.013032967687332</v>
       </c>
       <c r="K17">
-        <v>1.023828440683453</v>
+        <v>1.024982724763072</v>
       </c>
       <c r="L17">
-        <v>1.007257101031368</v>
+        <v>1.008553299174552</v>
       </c>
       <c r="M17">
-        <v>1.030856707174967</v>
+        <v>1.031796595927327</v>
       </c>
       <c r="N17">
-        <v>1.007457779437215</v>
+        <v>1.010542344030732</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.034133077808611</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.034876049524887</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018994862802068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9842821644105942</v>
+        <v>0.9857433095117919</v>
       </c>
       <c r="D18">
-        <v>1.010410562270248</v>
+        <v>1.011548112308289</v>
       </c>
       <c r="E18">
-        <v>0.9937077404288329</v>
+        <v>0.9949983636141638</v>
       </c>
       <c r="F18">
-        <v>1.017353246871172</v>
+        <v>1.018280999306021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040117408453025</v>
+        <v>1.040622468726784</v>
       </c>
       <c r="J18">
-        <v>1.011952411940744</v>
+        <v>1.013355951746257</v>
       </c>
       <c r="K18">
-        <v>1.024051983296665</v>
+        <v>1.025170443727338</v>
       </c>
       <c r="L18">
-        <v>1.00763597764817</v>
+        <v>1.008903993957741</v>
       </c>
       <c r="M18">
-        <v>1.030879015889714</v>
+        <v>1.031791467393917</v>
       </c>
       <c r="N18">
-        <v>1.007529254881538</v>
+        <v>1.010553532129882</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033911584014309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.034633018929402</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019004534333625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9841301016863684</v>
+        <v>0.9856537664813537</v>
       </c>
       <c r="D19">
-        <v>1.010124690572354</v>
+        <v>1.011323655058471</v>
       </c>
       <c r="E19">
-        <v>0.9935165715976355</v>
+        <v>0.9948662943454298</v>
       </c>
       <c r="F19">
-        <v>1.01677197020867</v>
+        <v>1.017747546180381</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039934593192059</v>
+        <v>1.040471910347687</v>
       </c>
       <c r="J19">
-        <v>1.011668136445956</v>
+        <v>1.013132063181485</v>
       </c>
       <c r="K19">
-        <v>1.023707299074733</v>
+        <v>1.024886237999105</v>
       </c>
       <c r="L19">
-        <v>1.007383013850997</v>
+        <v>1.008709211775478</v>
       </c>
       <c r="M19">
-        <v>1.03024431854706</v>
+        <v>1.031203868239791</v>
       </c>
       <c r="N19">
-        <v>1.007363580683241</v>
+        <v>1.01043466845342</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033081895745316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.033840820410921</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018895659399931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9813444586735279</v>
+        <v>0.9832024951081374</v>
       </c>
       <c r="D20">
-        <v>1.007898041216033</v>
+        <v>1.009427352185095</v>
       </c>
       <c r="E20">
-        <v>0.9911833063177424</v>
+        <v>0.9928332728599429</v>
       </c>
       <c r="F20">
-        <v>1.014043962320549</v>
+        <v>1.015275773559004</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039094647040728</v>
+        <v>1.039783530072126</v>
       </c>
       <c r="J20">
-        <v>1.009613957014536</v>
+        <v>1.011396649458556</v>
       </c>
       <c r="K20">
-        <v>1.021803420356373</v>
+        <v>1.023306434051752</v>
       </c>
       <c r="L20">
-        <v>1.005382978771377</v>
+        <v>1.007003322090297</v>
       </c>
       <c r="M20">
-        <v>1.027844280297192</v>
+        <v>1.029055231837405</v>
       </c>
       <c r="N20">
-        <v>1.00654511517709</v>
+        <v>1.009949281181251</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030650482051789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.03160883328203</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018463675932781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9751529758434833</v>
+        <v>0.9777117353699388</v>
       </c>
       <c r="D21">
-        <v>1.003607729839668</v>
+        <v>1.005803396313855</v>
       </c>
       <c r="E21">
-        <v>0.9862493861404414</v>
+        <v>0.9885214359580689</v>
       </c>
       <c r="F21">
-        <v>1.009760656027639</v>
+        <v>1.01151345083562</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037746090128495</v>
+        <v>1.038727829667837</v>
       </c>
       <c r="J21">
-        <v>1.005727568929178</v>
+        <v>1.008171808211813</v>
       </c>
       <c r="K21">
-        <v>1.018521073517304</v>
+        <v>1.020675649425802</v>
       </c>
       <c r="L21">
-        <v>1.001496036445273</v>
+        <v>1.003723586007358</v>
       </c>
       <c r="M21">
-        <v>1.024559439628014</v>
+        <v>1.026279931800791</v>
       </c>
       <c r="N21">
-        <v>1.005173087036291</v>
+        <v>1.009480287431136</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.028009429234995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.029371106233983</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017861797662664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9712103394454384</v>
+        <v>0.9742178720270955</v>
       </c>
       <c r="D22">
-        <v>1.00089738143874</v>
+        <v>1.00351957102069</v>
       </c>
       <c r="E22">
-        <v>0.9831224060097242</v>
+        <v>0.9857926106851773</v>
       </c>
       <c r="F22">
-        <v>1.007087053596124</v>
+        <v>1.009173589535276</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036889389434445</v>
+        <v>1.038058599290098</v>
       </c>
       <c r="J22">
-        <v>1.003268289903614</v>
+        <v>1.006132910467012</v>
       </c>
       <c r="K22">
-        <v>1.016451081964466</v>
+        <v>1.019021625480233</v>
       </c>
       <c r="L22">
-        <v>0.9990357933687346</v>
+        <v>1.001650872318925</v>
       </c>
       <c r="M22">
-        <v>1.022519409915833</v>
+        <v>1.024565480328781</v>
       </c>
       <c r="N22">
-        <v>1.004308956996871</v>
+        <v>1.009182165683034</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026394851972483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.028014210129389</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017484916362906</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9733099740932566</v>
+        <v>0.9760575794160073</v>
       </c>
       <c r="D23">
-        <v>1.002340154043349</v>
+        <v>1.004718511267565</v>
       </c>
       <c r="E23">
-        <v>0.984786774931009</v>
+        <v>0.9872253826466117</v>
       </c>
       <c r="F23">
-        <v>1.008509741183688</v>
+        <v>1.010404750996787</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.037346582241653</v>
+        <v>1.038407912349963</v>
       </c>
       <c r="J23">
-        <v>1.004578009883535</v>
+        <v>1.007199106704531</v>
       </c>
       <c r="K23">
-        <v>1.017553653862966</v>
+        <v>1.019886410475418</v>
       </c>
       <c r="L23">
-        <v>1.00034579738477</v>
+        <v>1.002735436436738</v>
       </c>
       <c r="M23">
-        <v>1.023605531784923</v>
+        <v>1.02546476378155</v>
       </c>
       <c r="N23">
-        <v>1.004769211105597</v>
+        <v>1.009294789585659</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027254461334046</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.02872594493447</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017680447638984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9813696552139803</v>
+        <v>0.9832310299383736</v>
       </c>
       <c r="D24">
-        <v>1.007891051543634</v>
+        <v>1.009423790304367</v>
       </c>
       <c r="E24">
-        <v>0.9911945325502186</v>
+        <v>0.9928478928056762</v>
       </c>
       <c r="F24">
-        <v>1.01399476528863</v>
+        <v>1.015229304156</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039080258031088</v>
+        <v>1.039771300366536</v>
       </c>
       <c r="J24">
-        <v>1.009604218754375</v>
+        <v>1.011390226507791</v>
       </c>
       <c r="K24">
-        <v>1.021780994244536</v>
+        <v>1.023287410331509</v>
       </c>
       <c r="L24">
-        <v>1.005378067022707</v>
+        <v>1.007001782496279</v>
       </c>
       <c r="M24">
-        <v>1.027780494985989</v>
+        <v>1.028994152265859</v>
       </c>
       <c r="N24">
-        <v>1.006534328514262</v>
+        <v>1.009938415208548</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030558719082454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.031519260274772</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018453763263931</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9903295263276156</v>
+        <v>0.9914914547273159</v>
       </c>
       <c r="D25">
-        <v>1.014083715010699</v>
+        <v>1.014896739042756</v>
       </c>
       <c r="E25">
-        <v>0.9983534301569926</v>
+        <v>0.9993956691622192</v>
       </c>
       <c r="F25">
-        <v>1.020137009076621</v>
+        <v>1.020821086742</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040961758294996</v>
+        <v>1.041344915235081</v>
       </c>
       <c r="J25">
-        <v>1.015186781613765</v>
+        <v>1.016308597898102</v>
       </c>
       <c r="K25">
-        <v>1.026467263851389</v>
+        <v>1.02726812135222</v>
       </c>
       <c r="L25">
-        <v>1.010977360891167</v>
+        <v>1.012003373838116</v>
       </c>
       <c r="M25">
-        <v>1.032430564280689</v>
+        <v>1.03310455709251</v>
       </c>
       <c r="N25">
-        <v>1.008492108608593</v>
+        <v>1.011256124073677</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034238979143432</v>
+        <v>1.03477240374909</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01936772251287</v>
       </c>
     </row>
   </sheetData>
